--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Route Mobile Ltd/Pruned_Excel/Final_Parameters/Route Mobile Ltd_Cleaned_Data_Updated.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Route Mobile Ltd/Pruned_Excel/Final_Parameters/Route Mobile Ltd_Cleaned_Data_Updated.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="110">
   <si>
     <t>Balance Sheet of Route Mobile(in Rs. Cr.)</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>P/l before exceptional items &amp; tax</t>
+  </si>
+  <si>
+    <t>Exceptional items</t>
   </si>
   <si>
     <t>P/l before tax</t>
@@ -2121,13 +2124,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
@@ -2188,10 +2191,13 @@
       <c r="T1" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B2">
         <v>93.98</v>
@@ -2224,36 +2230,39 @@
         <v>3.54</v>
       </c>
       <c r="L2">
+        <v>-13.26</v>
+      </c>
+      <c r="M2">
         <v>-9.720000000000001</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>-2.59</v>
-      </c>
-      <c r="N2">
-        <v>-7.13</v>
       </c>
       <c r="O2">
         <v>-7.13</v>
       </c>
       <c r="P2">
+        <v>-7.13</v>
+      </c>
+      <c r="Q2">
         <v>50</v>
-      </c>
-      <c r="Q2">
-        <v>-1.42</v>
       </c>
       <c r="R2">
         <v>-1.42</v>
       </c>
       <c r="S2">
+        <v>-1.42</v>
+      </c>
+      <c r="T2">
         <v>-1.43</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>-1.42</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B3">
         <v>91.27</v>
@@ -2285,23 +2294,20 @@
       <c r="K3">
         <v>7.33</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>7.33</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>1.89</v>
-      </c>
-      <c r="N3">
-        <v>5.45</v>
       </c>
       <c r="O3">
         <v>5.45</v>
       </c>
       <c r="P3">
+        <v>5.45</v>
+      </c>
+      <c r="Q3">
         <v>57.36</v>
-      </c>
-      <c r="Q3">
-        <v>0.97</v>
       </c>
       <c r="R3">
         <v>0.97</v>
@@ -2312,10 +2318,13 @@
       <c r="T3">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="U3">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B4">
         <v>93.31</v>
@@ -2347,23 +2356,20 @@
       <c r="K4">
         <v>3.59</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>3.59</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>0.86</v>
-      </c>
-      <c r="N4">
-        <v>2.74</v>
       </c>
       <c r="O4">
         <v>2.74</v>
       </c>
       <c r="P4">
+        <v>2.74</v>
+      </c>
+      <c r="Q4">
         <v>56.86</v>
-      </c>
-      <c r="Q4">
-        <v>0.53</v>
       </c>
       <c r="R4">
         <v>0.53</v>
@@ -2374,10 +2380,13 @@
       <c r="T4">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="U4">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B5">
         <v>100.87</v>
@@ -2409,23 +2418,20 @@
       <c r="K5">
         <v>9.630000000000001</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>9.630000000000001</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>2.47</v>
-      </c>
-      <c r="N5">
-        <v>7.16</v>
       </c>
       <c r="O5">
         <v>7.16</v>
       </c>
       <c r="P5">
+        <v>7.16</v>
+      </c>
+      <c r="Q5">
         <v>50</v>
-      </c>
-      <c r="Q5">
-        <v>1.43</v>
       </c>
       <c r="R5">
         <v>1.43</v>
@@ -2436,10 +2442,13 @@
       <c r="T5">
         <v>1.43</v>
       </c>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="U5">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B6">
         <v>108.25</v>
@@ -2472,30 +2481,33 @@
         <v>16.11</v>
       </c>
       <c r="L6">
+        <v>-0.13</v>
+      </c>
+      <c r="M6">
         <v>15.97</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>3.31</v>
-      </c>
-      <c r="N6">
-        <v>12.66</v>
       </c>
       <c r="O6">
         <v>12.66</v>
       </c>
       <c r="P6">
+        <v>12.66</v>
+      </c>
+      <c r="Q6">
         <v>50</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>2.53</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>2.53</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B7">
         <v>90.14</v>
@@ -2527,23 +2539,20 @@
       <c r="K7">
         <v>21.73</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>21.73</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>0.79</v>
-      </c>
-      <c r="N7">
-        <v>20.94</v>
       </c>
       <c r="O7">
         <v>20.94</v>
       </c>
       <c r="P7">
+        <v>20.94</v>
+      </c>
+      <c r="Q7">
         <v>62.87</v>
-      </c>
-      <c r="Q7">
-        <v>3.54</v>
       </c>
       <c r="R7">
         <v>3.54</v>
@@ -2554,10 +2563,13 @@
       <c r="T7">
         <v>3.54</v>
       </c>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="U7">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B8">
         <v>85.65000000000001</v>
@@ -2589,37 +2601,37 @@
       <c r="K8">
         <v>5.85</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>5.85</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>1.54</v>
-      </c>
-      <c r="N8">
-        <v>4.31</v>
       </c>
       <c r="O8">
         <v>4.31</v>
       </c>
       <c r="P8">
+        <v>4.31</v>
+      </c>
+      <c r="Q8">
         <v>57.91</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>0.75</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>0.73</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>0.75</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>0.73</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B9">
         <v>58.37</v>
@@ -2651,37 +2663,37 @@
       <c r="K9">
         <v>3.18</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>3.18</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>0.8</v>
-      </c>
-      <c r="N9">
-        <v>2.38</v>
       </c>
       <c r="O9">
         <v>2.38</v>
       </c>
       <c r="P9">
+        <v>2.38</v>
+      </c>
+      <c r="Q9">
         <v>57.71</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>0.41</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>0.4</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>0.41</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>0.4</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B10">
         <v>90.94</v>
@@ -2713,37 +2725,37 @@
       <c r="K10">
         <v>9.210000000000001</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>9.210000000000001</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>2.23</v>
-      </c>
-      <c r="N10">
-        <v>6.98</v>
       </c>
       <c r="O10">
         <v>6.98</v>
       </c>
       <c r="P10">
+        <v>6.98</v>
+      </c>
+      <c r="Q10">
         <v>57.71</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>1.2</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>1.11</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>1.2</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>1.11</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B11">
         <v>99.66</v>
@@ -2776,22 +2788,22 @@
         <v>7.68</v>
       </c>
       <c r="L11">
+        <v>-5</v>
+      </c>
+      <c r="M11">
         <v>2.68</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>2.53</v>
-      </c>
-      <c r="N11">
-        <v>0.15</v>
       </c>
       <c r="O11">
         <v>0.15</v>
       </c>
       <c r="P11">
+        <v>0.15</v>
+      </c>
+      <c r="Q11">
         <v>62.87</v>
-      </c>
-      <c r="Q11">
-        <v>0.05</v>
       </c>
       <c r="R11">
         <v>0.05</v>
@@ -2802,10 +2814,13 @@
       <c r="T11">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="U11">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B12">
         <v>132.27</v>
@@ -2838,22 +2853,22 @@
         <v>52.78</v>
       </c>
       <c r="L12">
+        <v>-5</v>
+      </c>
+      <c r="M12">
         <v>47.78</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>8.550000000000001</v>
-      </c>
-      <c r="N12">
-        <v>39.23</v>
       </c>
       <c r="O12">
         <v>39.23</v>
       </c>
       <c r="P12">
+        <v>39.23</v>
+      </c>
+      <c r="Q12">
         <v>62.31</v>
-      </c>
-      <c r="Q12">
-        <v>6.28</v>
       </c>
       <c r="R12">
         <v>6.28</v>
@@ -2864,10 +2879,13 @@
       <c r="T12">
         <v>6.28</v>
       </c>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="U12">
+        <v>6.28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B13">
         <v>141.61</v>
@@ -2899,23 +2917,20 @@
       <c r="K13">
         <v>10.37</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>10.37</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>2.67</v>
-      </c>
-      <c r="N13">
-        <v>7.7</v>
       </c>
       <c r="O13">
         <v>7.7</v>
       </c>
       <c r="P13">
+        <v>7.7</v>
+      </c>
+      <c r="Q13">
         <v>62.18</v>
-      </c>
-      <c r="Q13">
-        <v>1.24</v>
       </c>
       <c r="R13">
         <v>1.24</v>
@@ -2926,10 +2941,13 @@
       <c r="T13">
         <v>1.24</v>
       </c>
-    </row>
-    <row r="14" spans="1:20">
+      <c r="U13">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B14">
         <v>132.73</v>
@@ -2961,23 +2979,20 @@
       <c r="K14">
         <v>29.26</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>29.26</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>3.05</v>
-      </c>
-      <c r="N14">
-        <v>26.21</v>
       </c>
       <c r="O14">
         <v>26.21</v>
       </c>
       <c r="P14">
+        <v>26.21</v>
+      </c>
+      <c r="Q14">
         <v>63.04</v>
-      </c>
-      <c r="Q14">
-        <v>4.16</v>
       </c>
       <c r="R14">
         <v>4.16</v>
@@ -2988,10 +3003,13 @@
       <c r="T14">
         <v>4.16</v>
       </c>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="U14">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B15">
         <v>146.47</v>
@@ -3023,23 +3041,20 @@
       <c r="K15">
         <v>28.07</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>28.07</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>5.31</v>
-      </c>
-      <c r="N15">
-        <v>22.76</v>
       </c>
       <c r="O15">
         <v>22.76</v>
       </c>
       <c r="P15">
+        <v>22.76</v>
+      </c>
+      <c r="Q15">
         <v>62.44</v>
-      </c>
-      <c r="Q15">
-        <v>3.64</v>
       </c>
       <c r="R15">
         <v>3.64</v>
@@ -3050,10 +3065,13 @@
       <c r="T15">
         <v>3.64</v>
       </c>
-    </row>
-    <row r="16" spans="1:20">
+      <c r="U15">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B16">
         <v>129.19</v>
@@ -3085,23 +3103,20 @@
       <c r="K16">
         <v>22.42</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>22.42</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>5.73</v>
-      </c>
-      <c r="N16">
-        <v>16.69</v>
       </c>
       <c r="O16">
         <v>16.69</v>
       </c>
       <c r="P16">
+        <v>16.69</v>
+      </c>
+      <c r="Q16">
         <v>62.44</v>
-      </c>
-      <c r="Q16">
-        <v>2.68</v>
       </c>
       <c r="R16">
         <v>2.68</v>
@@ -3112,10 +3127,13 @@
       <c r="T16">
         <v>2.68</v>
       </c>
-    </row>
-    <row r="17" spans="1:20">
+      <c r="U16">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B17">
         <v>174.49</v>
@@ -3147,23 +3165,20 @@
       <c r="K17">
         <v>53.94</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>53.94</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>8.970000000000001</v>
-      </c>
-      <c r="N17">
-        <v>44.97</v>
       </c>
       <c r="O17">
         <v>44.97</v>
       </c>
       <c r="P17">
+        <v>44.97</v>
+      </c>
+      <c r="Q17">
         <v>62.62</v>
-      </c>
-      <c r="Q17">
-        <v>7.18</v>
       </c>
       <c r="R17">
         <v>7.18</v>
@@ -3174,10 +3189,13 @@
       <c r="T17">
         <v>7.18</v>
       </c>
-    </row>
-    <row r="18" spans="1:20">
+      <c r="U17">
+        <v>7.18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B18">
         <v>160.75</v>
@@ -3209,37 +3227,37 @@
       <c r="K18">
         <v>42.32</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>42.32</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>7.28</v>
-      </c>
-      <c r="N18">
-        <v>35.04</v>
       </c>
       <c r="O18">
         <v>35.04</v>
       </c>
       <c r="P18">
+        <v>35.04</v>
+      </c>
+      <c r="Q18">
         <v>62.62</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>5.61</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>5.19</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>5.61</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>5.19</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B19">
         <v>209.28</v>
@@ -3271,23 +3289,20 @@
       <c r="K19">
         <v>60.98</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>60.98</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>12.98</v>
-      </c>
-      <c r="N19">
-        <v>48</v>
       </c>
       <c r="O19">
         <v>48</v>
       </c>
       <c r="P19">
+        <v>48</v>
+      </c>
+      <c r="Q19">
         <v>62.96</v>
-      </c>
-      <c r="Q19">
-        <v>7.64</v>
       </c>
       <c r="R19">
         <v>7.64</v>
@@ -3298,10 +3313,13 @@
       <c r="T19">
         <v>7.64</v>
       </c>
-    </row>
-    <row r="20" spans="1:20">
+      <c r="U19">
+        <v>7.64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B20">
         <v>208.26</v>
@@ -3333,23 +3351,20 @@
       <c r="K20">
         <v>37.63</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>37.63</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>9.42</v>
-      </c>
-      <c r="N20">
-        <v>28.21</v>
       </c>
       <c r="O20">
         <v>28.21</v>
       </c>
       <c r="P20">
+        <v>28.21</v>
+      </c>
+      <c r="Q20">
         <v>62.79</v>
-      </c>
-      <c r="Q20">
-        <v>4.49</v>
       </c>
       <c r="R20">
         <v>4.49</v>
@@ -3360,10 +3375,13 @@
       <c r="T20">
         <v>4.49</v>
       </c>
-    </row>
-    <row r="21" spans="1:20">
+      <c r="U20">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B21">
         <v>185.37</v>
@@ -3395,31 +3413,31 @@
       <c r="K21">
         <v>31.49</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>31.49</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>7.93</v>
-      </c>
-      <c r="N21">
-        <v>23.56</v>
       </c>
       <c r="O21">
         <v>23.56</v>
       </c>
       <c r="P21">
+        <v>23.56</v>
+      </c>
+      <c r="Q21">
         <v>62.79</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>3.76</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>3.54</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>3.76</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>3.54</v>
       </c>
     </row>
@@ -3438,58 +3456,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:18">
